--- a/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
+++ b/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s202425/Documents/GitHub/metastasis/results/expressiondata_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872585D-C93B-5C48-B368-809BCF3E2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8979A57A-9BB1-1746-8DC4-78F0AAA4CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
+    <workbookView xWindow="5800" yWindow="500" windowWidth="23000" windowHeight="15980" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>pathway</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>not Found</t>
   </si>
   <si>
     <t>HMR_2583</t>
@@ -655,7 +652,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -699,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -707,11 +704,11 @@
       <c r="E2" s="5">
         <v>9.93</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="F2" s="2">
+        <v>-4.268E-16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.0820000000000001E-17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -730,11 +727,11 @@
       <c r="E3" s="5">
         <v>9.93</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -742,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -753,11 +750,11 @@
       <c r="E4" s="5">
         <v>9.93</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -765,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -776,11 +773,11 @@
       <c r="E5" s="5">
         <v>9.93</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="F5" s="2">
+        <v>-1.88304E-12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1.3634E-14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -788,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -799,11 +796,11 @@
       <c r="E6" s="5">
         <v>9.93</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -811,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -822,22 +819,22 @@
       <c r="E7" s="5">
         <v>9.93</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -845,22 +842,22 @@
       <c r="E8" s="6">
         <v>3.65</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="F8">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="G8">
+        <v>3.9830999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -877,13 +874,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -900,13 +897,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -921,18 +918,18 @@
         <v>508</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -940,22 +937,22 @@
       <c r="E12" s="1">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
+      <c r="F12" s="2">
+        <v>-9.6799999999999995E-16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9.8422999999999998E-15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -963,22 +960,22 @@
       <c r="E13" s="1">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -995,13 +992,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1009,22 +1006,22 @@
       <c r="E15" s="6">
         <v>3.5430000000000001</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -1041,13 +1038,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1064,13 +1061,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>8</v>
@@ -1087,16 +1084,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1">
         <v>6.4729999999999999</v>
@@ -1110,16 +1107,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>6.4729999999999999</v>
@@ -1133,16 +1130,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>6.4729999999999999</v>
@@ -1156,62 +1153,62 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1">
         <v>6.0860000000000003</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
+      <c r="F22">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="G22">
+        <v>7.6689999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
         <v>6.0860000000000003</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5">
         <v>9.2439999999999998</v>
@@ -1225,16 +1222,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5">
         <v>9.85</v>
@@ -1248,16 +1245,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
         <v>9.85</v>
@@ -1271,16 +1268,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5">
         <v>9.85</v>
@@ -1294,16 +1291,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5">
         <v>9.85</v>
@@ -1317,16 +1314,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5">
         <v>9.85</v>
@@ -1340,16 +1337,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5">
         <v>9.85</v>
@@ -1363,16 +1360,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6">
         <v>4.17</v>
@@ -1384,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6">
         <v>4.17</v>
@@ -1410,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6">
         <v>4.17</v>
@@ -1436,47 +1433,47 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6">
         <v>4.17</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="6">
         <v>4.17</v>
@@ -1488,21 +1485,21 @@
         <v>-5.7867201693752604E-22</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="6">
         <v>4.17</v>
@@ -1514,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
         <v>6.16</v>
@@ -1542,16 +1539,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
         <v>6.16</v>
@@ -1565,94 +1562,94 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="6">
         <v>4.5990000000000002</v>
       </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
+      <c r="F39">
+        <v>2.8721999999999999</v>
+      </c>
+      <c r="G39">
+        <v>22.842600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="5">
         <v>8.6590000000000007</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="7">
         <v>6.79</v>
       </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
+      <c r="F41">
+        <v>2.0886</v>
+      </c>
+      <c r="G41">
+        <v>7.6689999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="7">
         <v>6.79</v>
       </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
+++ b/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s202425/Documents/GitHub/metastasis/results/expressiondata_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8979A57A-9BB1-1746-8DC4-78F0AAA4CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E81BD-0087-E543-BDEE-BE101141B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="500" windowWidth="23000" windowHeight="15980" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="17080" windowHeight="15980" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>pathway</t>
   </si>
@@ -48,9 +48,6 @@
     <t>minFLux</t>
   </si>
   <si>
-    <t>maxFlus</t>
-  </si>
-  <si>
     <t>gene name</t>
   </si>
   <si>
@@ -258,17 +255,23 @@
     <t>ENSG00000007047</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t xml:space="preserve">geneexpression lowest value (RMA normalized data) </t>
+  </si>
+  <si>
+    <t>malate[c] + NADP+[c] =&gt; CO2[c] + NADPH[c] + pyruvate[c]</t>
+  </si>
+  <si>
+    <t>maxFlux</t>
+  </si>
+  <si>
+    <t>threshold that flux is downregulated: &lt;0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -321,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,6 +339,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E684E9E-692C-C640-A68E-5B7E7A2B97D2}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,9 +675,9 @@
     <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -679,27 +689,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>9.93</v>
@@ -711,18 +721,18 @@
         <v>3.0820000000000001E-17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>9.93</v>
@@ -734,18 +744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>9.93</v>
@@ -757,18 +767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
         <v>9.93</v>
@@ -780,18 +790,18 @@
         <v>-1.3634E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>9.93</v>
@@ -803,18 +813,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
         <v>9.93</v>
@@ -826,18 +836,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>3.65</v>
@@ -849,18 +859,18 @@
         <v>3.9830999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>3.23</v>
@@ -872,18 +882,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="5">
         <v>10.388</v>
@@ -895,18 +905,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
         <v>9.9550000000000001</v>
@@ -917,22 +927,19 @@
       <c r="G11">
         <v>508</v>
       </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>6.4729999999999999</v>
@@ -944,18 +951,18 @@
         <v>9.8422999999999998E-15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>6.4729999999999999</v>
@@ -967,18 +974,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
         <v>3.5430000000000001</v>
@@ -990,18 +997,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
         <v>3.5430000000000001</v>
@@ -1013,18 +1020,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6">
         <v>3.5430000000000001</v>
@@ -1036,18 +1043,18 @@
         <v>-5.7867000000000002E-18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
         <v>3.5419999999999998</v>
@@ -1059,18 +1066,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <v>4.83</v>
@@ -1082,18 +1089,18 @@
         <v>1.5816725096104701E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
         <v>6.4729999999999999</v>
@@ -1105,18 +1112,18 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>6.4729999999999999</v>
@@ -1128,18 +1135,18 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>6.4729999999999999</v>
@@ -1151,18 +1158,18 @@
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1">
         <v>6.0860000000000003</v>
@@ -1174,18 +1181,18 @@
         <v>7.6689999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1">
         <v>6.0860000000000003</v>
@@ -1197,18 +1204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5">
         <v>9.2439999999999998</v>
@@ -1220,18 +1227,18 @@
         <v>734.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5">
         <v>9.85</v>
@@ -1243,18 +1250,18 @@
         <v>723.3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="5">
         <v>9.85</v>
@@ -1266,18 +1273,18 @@
         <v>6.13E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="5">
         <v>9.85</v>
@@ -1289,18 +1296,18 @@
         <v>4.9749999999999998E-15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="5">
         <v>9.85</v>
@@ -1312,18 +1319,18 @@
         <v>1.9199999999999999E-16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="5">
         <v>9.85</v>
@@ -1335,18 +1342,18 @@
         <v>5.0799999999999997E-15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="5">
         <v>9.85</v>
@@ -1358,18 +1365,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="6">
         <v>4.17</v>
@@ -1380,22 +1387,19 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="6">
         <v>4.17</v>
@@ -1406,22 +1410,19 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="6">
         <v>4.17</v>
@@ -1432,22 +1433,19 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="6">
         <v>4.17</v>
@@ -1458,22 +1456,19 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="6">
         <v>4.17</v>
@@ -1484,22 +1479,19 @@
       <c r="G35" s="2">
         <v>-5.7867201693752604E-22</v>
       </c>
-      <c r="I35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6">
         <v>4.17</v>
@@ -1510,22 +1502,19 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1">
         <v>6.16</v>
@@ -1537,18 +1526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1">
         <v>6.16</v>
@@ -1560,18 +1549,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="6">
         <v>4.5990000000000002</v>
@@ -1582,19 +1571,22 @@
       <c r="G39">
         <v>22.842600000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="5">
         <v>8.6590000000000007</v>
@@ -1606,18 +1598,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="7">
         <v>6.79</v>
@@ -1629,18 +1621,18 @@
         <v>7.6689999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="7">
         <v>6.79</v>
@@ -1650,6 +1642,11 @@
       </c>
       <c r="G42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
+++ b/results/expressiondata_comparison/brain_expressiondata_comparison.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s202425/Documents/GitHub/metastasis/results/expressiondata_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E81BD-0087-E543-BDEE-BE101141B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC848FC3-9891-D94E-8674-E47CDF31B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="17080" windowHeight="15980" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="17080" windowHeight="15980" xr2:uid="{4494EFA9-B28A-2643-A177-2F6A16CE7C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="117">
   <si>
     <t>pathway</t>
   </si>
@@ -265,6 +265,126 @@
   </si>
   <si>
     <t>threshold that flux is downregulated: &lt;0.1</t>
+  </si>
+  <si>
+    <t>MAR02583</t>
+  </si>
+  <si>
+    <t>MAR02584</t>
+  </si>
+  <si>
+    <t>MAR08560</t>
+  </si>
+  <si>
+    <t>MAR01312</t>
+  </si>
+  <si>
+    <t>MAR01394</t>
+  </si>
+  <si>
+    <t>MAR07618</t>
+  </si>
+  <si>
+    <t>MAR04136</t>
+  </si>
+  <si>
+    <t>MAR06916</t>
+  </si>
+  <si>
+    <t>MAR03857</t>
+  </si>
+  <si>
+    <t>MAR08511</t>
+  </si>
+  <si>
+    <t>MAR08604</t>
+  </si>
+  <si>
+    <t>MAR04682</t>
+  </si>
+  <si>
+    <t>MAR06758</t>
+  </si>
+  <si>
+    <t>MAR06789</t>
+  </si>
+  <si>
+    <t>MAR03213</t>
+  </si>
+  <si>
+    <t>MAR06623</t>
+  </si>
+  <si>
+    <t>MAR04054</t>
+  </si>
+  <si>
+    <t>MAR04641</t>
+  </si>
+  <si>
+    <t>MAR09577</t>
+  </si>
+  <si>
+    <t>MAR09579</t>
+  </si>
+  <si>
+    <t>MAR06921</t>
+  </si>
+  <si>
+    <t>MAR04476</t>
+  </si>
+  <si>
+    <t>MAR06929</t>
+  </si>
+  <si>
+    <t>MAR06930</t>
+  </si>
+  <si>
+    <t>MAR06938</t>
+  </si>
+  <si>
+    <t>MAR06939</t>
+  </si>
+  <si>
+    <t>MAR08603</t>
+  </si>
+  <si>
+    <t>MAR04430</t>
+  </si>
+  <si>
+    <t>MAR06713</t>
+  </si>
+  <si>
+    <t>MAR09491</t>
+  </si>
+  <si>
+    <t>MAR04089</t>
+  </si>
+  <si>
+    <t>MAR06737</t>
+  </si>
+  <si>
+    <t>MAR06710</t>
+  </si>
+  <si>
+    <t>MAR03985</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>no flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no flux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ENSG00000100462 and ENSG00000126457) </t>
+  </si>
+  <si>
+    <t>ENSG00000100462 and ENSG00000126457</t>
+  </si>
+  <si>
+    <t>ENSG00000132155 and ENSG00000157764</t>
   </si>
 </sst>
 </file>
@@ -330,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -340,6 +460,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,993 +780,1312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E684E9E-692C-C640-A68E-5B7E7A2B97D2}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:17" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="2">
+        <v>-4.268E-16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.0820000000000001E-17</v>
+      </c>
+      <c r="O3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="Q3" s="5">
         <v>9.93</v>
       </c>
-      <c r="F2" s="2">
-        <v>-4.268E-16</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.0820000000000001E-17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="Q4" s="5">
         <v>9.93</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="Q5" s="5">
         <v>9.93</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="2">
+        <v>-1.88304E-12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1.3634E-14</v>
+      </c>
+      <c r="O6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="Q6" s="5">
         <v>9.93</v>
       </c>
-      <c r="F5" s="2">
-        <v>-1.88304E-12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-1.3634E-14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="Q7" s="5">
         <v>9.93</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="Q8" s="5">
         <v>9.93</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="I9">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="J9">
+        <v>3.9830999999999999</v>
+      </c>
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="Q9" s="6">
         <v>3.65</v>
       </c>
-      <c r="F8">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="G8">
-        <v>3.9830999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="Q10" s="6">
         <v>3.23</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5">
+      <c r="Q11" s="5">
         <v>10.388</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12">
+        <v>433.5</v>
+      </c>
+      <c r="J12">
+        <v>508</v>
+      </c>
+      <c r="O12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="Q12" s="5">
         <v>9.9550000000000001</v>
       </c>
-      <c r="F11">
-        <v>433.5</v>
-      </c>
-      <c r="G11">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="2">
+        <v>-9.6799999999999995E-16</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.8422999999999998E-15</v>
+      </c>
+      <c r="O13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="Q13" s="5">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F12" s="2">
-        <v>-9.6799999999999995E-16</v>
-      </c>
-      <c r="G12" s="2">
-        <v>9.8422999999999998E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="Q14" s="5">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6">
+      <c r="Q15" s="6">
         <v>3.5430000000000001</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
+      <c r="Q16" s="6">
         <v>3.5430000000000001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="2">
+        <v>-2.8500000000000002E-15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-5.7867000000000002E-18</v>
+      </c>
+      <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6">
+      <c r="Q17" s="6">
         <v>3.5430000000000001</v>
       </c>
-      <c r="F16" s="2">
-        <v>-2.8500000000000002E-15</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-5.7867000000000002E-18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6">
+      <c r="Q18" s="6">
         <v>3.5419999999999998</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="2">
+        <v>-5.6311617907572097E-14</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.5816725096104701E-14</v>
+      </c>
+      <c r="O19" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="6">
+      <c r="Q19" s="6">
         <v>4.83</v>
       </c>
-      <c r="F18" s="2">
-        <v>-5.6311617907572097E-14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.5816725096104701E-14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="I20">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J20">
+        <v>62.66</v>
+      </c>
+      <c r="O20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="P20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="5">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F19">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="G19">
-        <v>62.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="2">
+        <v>8.3130000000000006</v>
+      </c>
+      <c r="J21" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="O21" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="P21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="5">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F20" s="2">
-        <v>8.3130000000000006</v>
-      </c>
-      <c r="G20" s="2">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22">
+        <v>13.7</v>
+      </c>
+      <c r="J22">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="O22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="P22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="5">
         <v>6.4729999999999999</v>
       </c>
-      <c r="F21">
-        <v>13.7</v>
-      </c>
-      <c r="G21">
-        <v>72.459999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="J23">
+        <v>7.6689999999999996</v>
+      </c>
+      <c r="O23" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="P23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="5">
         <v>6.0860000000000003</v>
       </c>
-      <c r="F22">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="G22">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>6.0860000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="I25">
+        <v>675.23</v>
+      </c>
+      <c r="J25">
+        <v>734.9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>9.2439999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="I26">
+        <v>660.8</v>
+      </c>
+      <c r="J26">
+        <v>723.3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="2">
+        <v>4.7999999999999999E-18</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.13E-16</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="2">
+        <v>1.637E-15</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4.9749999999999998E-15</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="2">
+        <v>-1.1440000000000001E-17</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.9199999999999999E-16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="2">
+        <v>-1.65E-15</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5.0799999999999997E-15</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="I36" s="2">
+        <v>2.8593073549605601E-15</v>
+      </c>
+      <c r="J36" s="2">
+        <v>-5.7867201693752604E-22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>115</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="I40">
+        <v>2.8721999999999999</v>
+      </c>
+      <c r="J40">
+        <v>22.842600000000001</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>4.5990000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>8.6590000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="I42">
+        <v>2.0886</v>
+      </c>
+      <c r="J42">
         <v>7.6689999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="O42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>116</v>
+      </c>
+      <c r="O43" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6.0860000000000003</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="5">
-        <v>9.2439999999999998</v>
-      </c>
-      <c r="F24">
-        <v>675.23</v>
-      </c>
-      <c r="G24">
-        <v>734.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F25">
-        <v>660.8</v>
-      </c>
-      <c r="G25">
-        <v>723.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4.7999999999999999E-18</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6.13E-16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.637E-15</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4.9749999999999998E-15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-1.1440000000000001E-17</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1.9199999999999999E-16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-1.65E-15</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5.0799999999999997E-15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="5">
-        <v>9.85</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2.8593073549605601E-15</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-5.7867201693752604E-22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1">
-        <v>6.16</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="1">
-        <v>6.16</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="6">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="F39">
-        <v>2.8721999999999999</v>
-      </c>
-      <c r="G39">
-        <v>22.842600000000001</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5">
-        <v>8.6590000000000007</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="P43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="5">
         <v>6.79</v>
       </c>
-      <c r="F41">
-        <v>2.0886</v>
-      </c>
-      <c r="G41">
-        <v>7.6689999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="7">
-        <v>6.79</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>76</v>
       </c>
     </row>
